--- a/BOM/BOM LumiBee.xlsx
+++ b/BOM/BOM LumiBee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DesignPC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GDRIVE\LumIndustries\PROGETTI - STAMPANTI DLP -\LumiBee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6CB43-0CA9-4448-9172-8BCDE204E1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2DDE3-6E5F-4E25-A112-BC72B2467A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FED68DBE-D6C8-4A1F-8DD4-F33812880963}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>Part name</t>
   </si>
@@ -301,13 +301,22 @@
   </si>
   <si>
     <t>to hold leadscrews</t>
+  </si>
+  <si>
+    <t>www.Plexishop.it</t>
+  </si>
+  <si>
+    <t>Product name: "Metacrilato ACRIDITE 320 Rosso 1"</t>
+  </si>
+  <si>
+    <t>https://www.supermagnete.it/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +328,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,10 +493,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -513,8 +531,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,8 +851,8 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,8 +861,8 @@
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" customWidth="1"/>
     <col min="8" max="8" width="43.5703125" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" customWidth="1"/>
   </cols>
@@ -1788,9 +1809,13 @@
       <c r="F62" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="25"/>
+      <c r="G62" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="H62" s="25"/>
-      <c r="I62" s="26"/>
+      <c r="I62" s="33" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -1805,7 +1830,9 @@
       <c r="F63" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="H63" s="13"/>
       <c r="I63" s="27"/>
     </row>
@@ -1822,7 +1849,9 @@
       <c r="F64" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
     </row>
@@ -1841,7 +1870,9 @@
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
-      <c r="I66" s="21"/>
+      <c r="I66" s="21" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
@@ -1859,7 +1890,10 @@
       <c r="I67" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I62" r:id="rId1" xr:uid="{F8C3A851-0562-447B-BD6A-D5984C25D019}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>